--- a/Node Array Performance Analysis.xlsx
+++ b/Node Array Performance Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brass\source\repos\js-min\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{617269FD-D4C0-417C-98EA-0B9423AE5933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EAA0218C-1E66-488D-A801-22C0895598C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="19440" windowHeight="15000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Push 1000 li" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Push 1000 li'!$A$1:$A$2</definedName>
@@ -73,26 +74,32 @@
     <definedName name="_xlchart.v1.58" hidden="1">'Push 1000 li'!$I$2</definedName>
     <definedName name="_xlchart.v1.59" hidden="1">'Push 1000 li'!$I$3:$I$502</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Push 1000 li'!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'Push 1000 li'!$A$2</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'Push 1000 li'!$A$3:$A$502</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'Push 1000 li'!$B$2</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'Push 1000 li'!$B$3:$B$502</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'Push 1000 li'!$C$2</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'Push 1000 li'!$C$3:$C$502</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'Push 1000 li'!$D$2</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'Push 1000 li'!$D$3:$D$502</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'Push 1000 li'!$E$2</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'Push 1000 li'!$E$3:$E$502</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$A$2:$A$501</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$B$2:$B$501</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$C$2:$C$501</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$A$2:$A$501</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$B$2:$B$501</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Push 1000 li'!$D$3:$D$502</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'Push 1000 li'!$F$2</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'Push 1000 li'!$F$3:$F$502</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'Push 1000 li'!$G$2</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'Push 1000 li'!$G$3:$G$502</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'Push 1000 li'!$H$2</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'Push 1000 li'!$H$3:$H$502</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'Push 1000 li'!$I$2</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'Push 1000 li'!$I$3:$I$502</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$C$2:$C$501</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$A$2:$A$501</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$B$2:$B$501</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$C$2:$C$501</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$A$2:$A$501</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'Push 1000 li'!$E$1:$E$2</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$B$2:$B$501</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$C$2:$C$501</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'Push 1000 li'!$E$3:$E$502</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -100,7 +107,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S</t>
+  </si>
   <si>
     <t>Test 1</t>
   </si>
@@ -702,47 +718,47 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.73</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -780,7 +796,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3A2956E7-5A83-4A7C-AEBA-A429B3639470}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>C - 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -803,7 +819,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3056A0FC-2322-4D49-BDE0-0DC34A17C9E6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v> N - 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -826,7 +842,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5D6E9E9D-5FE9-46BA-A100-A2556C7F1BCE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v> S - 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -849,7 +865,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{03DF659D-AB3C-45D3-B57D-5D93312A28D1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>C - 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -872,7 +888,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6175F896-D0FF-44C4-A769-EDEA133252C9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v> N - 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -895,7 +911,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FEDC6F05-A2F7-4593-81F7-EAEE07BA4C45}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.70</cx:f>
+              <cx:f>_xlchart.v1.52</cx:f>
               <cx:v> S - 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -918,7 +934,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1B209D3E-F88F-4FF2-83E0-579DE6B0E106}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.72</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>C - 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -941,7 +957,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AC2B30BC-39BD-4238-9B04-222B99E84C52}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.74</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v> N - 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -964,7 +980,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DF36798C-1733-4543-8D09-EE0A4F9474C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v> S - 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1184,6 +1200,102 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.79</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.81</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.83</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E102C632-FF5F-4902-8B30-221630040F85}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:v>C</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{719F5EA3-8367-4F2B-B680-D48AFCF70C3A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:v> N</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5D5D5606-5C42-45F9-9188-684335B50460}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:v> S</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="6"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1225,6 +1337,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2294,6 +2446,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2422,6 +3089,89 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="7458490" y="5979215"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18648253-BA5C-486A-ABFC-A438FF097AF2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2271712" y="1266825"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2754,7 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
@@ -2762,74 +3512,74 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -21842,4 +22592,5531 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C501"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C501"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3.6000000254716702</v>
+      </c>
+      <c r="B2">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C2">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.5800000187009502</v>
+      </c>
+      <c r="B3">
+        <v>3.8399999903049302</v>
+      </c>
+      <c r="C3">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="B4">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C4">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3.7400000146590102</v>
+      </c>
+      <c r="B5">
+        <v>3.6600000166799802</v>
+      </c>
+      <c r="C5">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="B6">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C6">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.8349999813362898</v>
+      </c>
+      <c r="B7">
+        <v>3.5899999784305598</v>
+      </c>
+      <c r="C7">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.7950000260025201</v>
+      </c>
+      <c r="B8">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C8">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.6099999852012798</v>
+      </c>
+      <c r="B9">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="C9">
+        <v>0.44000000343658002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="B10">
+        <v>3.61999997403472</v>
+      </c>
+      <c r="C10">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="B11">
+        <v>3.8950000016484401</v>
+      </c>
+      <c r="C11">
+        <v>0.49500001478008898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B12">
+        <v>3.80000000586733</v>
+      </c>
+      <c r="C12">
+        <v>0.54999999701976698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="B13">
+        <v>3.6900000122841399</v>
+      </c>
+      <c r="C13">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4.4399999896995697</v>
+      </c>
+      <c r="B14">
+        <v>3.5449999850243299</v>
+      </c>
+      <c r="C14">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="B15">
+        <v>3.5399999760556899</v>
+      </c>
+      <c r="C15">
+        <v>0.45499997213482801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.1649999911896796</v>
+      </c>
+      <c r="B16">
+        <v>4.7099999792408198</v>
+      </c>
+      <c r="C16">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.6749999853782298</v>
+      </c>
+      <c r="B17">
+        <v>5.1749999984167498</v>
+      </c>
+      <c r="C17">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="B18">
+        <v>3.7550000124610898</v>
+      </c>
+      <c r="C18">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="B19">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C19">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="B20">
+        <v>5.8200000203214497</v>
+      </c>
+      <c r="C20">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="B21">
+        <v>3.8199999835342102</v>
+      </c>
+      <c r="C21">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.5249999782536099</v>
+      </c>
+      <c r="B22">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="C22">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="B23">
+        <v>4.1949999867938397</v>
+      </c>
+      <c r="C23">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.84499999927356</v>
+      </c>
+      <c r="B24">
+        <v>3.6100000143051099</v>
+      </c>
+      <c r="C24">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="B25">
+        <v>3.7699999811593399</v>
+      </c>
+      <c r="C25">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="B26">
+        <v>3.9999999862629898</v>
+      </c>
+      <c r="C26">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.6799999943468702</v>
+      </c>
+      <c r="B27">
+        <v>3.7850000080652499</v>
+      </c>
+      <c r="C27">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3.6649999965447901</v>
+      </c>
+      <c r="B28">
+        <v>3.96000000182539</v>
+      </c>
+      <c r="C28">
+        <v>0.57000000379048199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3.8350000104401198</v>
+      </c>
+      <c r="B29">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="C29">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="B30">
+        <v>3.7050000100862199</v>
+      </c>
+      <c r="C30">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3.9199999882839598</v>
+      </c>
+      <c r="B31">
+        <v>3.6450000188779001</v>
+      </c>
+      <c r="C31">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3.8099999947007701</v>
+      </c>
+      <c r="B32">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="C32">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3.9850000175647402</v>
+      </c>
+      <c r="B33">
+        <v>4.6049999946262599</v>
+      </c>
+      <c r="C33">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3.61999997403472</v>
+      </c>
+      <c r="B34">
+        <v>4.9749999889172596</v>
+      </c>
+      <c r="C34">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3.7249999877531002</v>
+      </c>
+      <c r="B35">
+        <v>3.6099999852012798</v>
+      </c>
+      <c r="C35">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3.9849999884609102</v>
+      </c>
+      <c r="B36">
+        <v>3.6800000234507002</v>
+      </c>
+      <c r="C36">
+        <v>1.0299999848939401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3.4900000027846501</v>
+      </c>
+      <c r="B37">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="C37">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3.5349999961908898</v>
+      </c>
+      <c r="B38">
+        <v>3.5499999939929601</v>
+      </c>
+      <c r="C38">
+        <v>0.50000002374872499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3.49499998264946</v>
+      </c>
+      <c r="B39">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C39">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.7650000012945299</v>
+      </c>
+      <c r="B40">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C40">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3.6849999742116699</v>
+      </c>
+      <c r="B41">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="C41">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="B42">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C42">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3.5949999873991998</v>
+      </c>
+      <c r="B43">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="C43">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5.2399999985937002</v>
+      </c>
+      <c r="B44">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C44">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B45">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C45">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="B46">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="C46">
+        <v>0.44000000343658002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="B47">
+        <v>3.7749999901279798</v>
+      </c>
+      <c r="C47">
+        <v>0.53999997908249497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.49500001175329</v>
+      </c>
+      <c r="B48">
+        <v>3.5899999784305598</v>
+      </c>
+      <c r="C48">
+        <v>0.48500002594664599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4.2200000025331903</v>
+      </c>
+      <c r="B49">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C49">
+        <v>0.54000000818632499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.9500000022817403</v>
+      </c>
+      <c r="B50">
+        <v>3.4900000027846501</v>
+      </c>
+      <c r="C50">
+        <v>0.53999997908249497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3.5099999804515298</v>
+      </c>
+      <c r="B51">
+        <v>3.8300000014714799</v>
+      </c>
+      <c r="C51">
+        <v>0.55999998585320998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3.6899999831803099</v>
+      </c>
+      <c r="B52">
+        <v>5.11999998707324</v>
+      </c>
+      <c r="C52">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3.7400000146590102</v>
+      </c>
+      <c r="B53">
+        <v>3.8749999948777201</v>
+      </c>
+      <c r="C53">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="B54">
+        <v>6.7500000004656604</v>
+      </c>
+      <c r="C54">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3.5949999873991998</v>
+      </c>
+      <c r="B55">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C55">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3.5099999804515298</v>
+      </c>
+      <c r="B56">
+        <v>3.61999997403472</v>
+      </c>
+      <c r="C56">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3.7399999855551802</v>
+      </c>
+      <c r="B57">
+        <v>3.9650000107940202</v>
+      </c>
+      <c r="C57">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3.7400000146590102</v>
+      </c>
+      <c r="B58">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="C58">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3.7550000124610898</v>
+      </c>
+      <c r="B59">
+        <v>3.7650000012945299</v>
+      </c>
+      <c r="C59">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3.5450000141281599</v>
+      </c>
+      <c r="B60">
+        <v>3.7050000100862199</v>
+      </c>
+      <c r="C60">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B61">
+        <v>8.7350000103469903</v>
+      </c>
+      <c r="C61">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B62">
+        <v>3.7049999809823899</v>
+      </c>
+      <c r="C62">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="B63">
+        <v>3.6099999852012798</v>
+      </c>
+      <c r="C63">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3.6899999831803099</v>
+      </c>
+      <c r="B64">
+        <v>3.9699999906588301</v>
+      </c>
+      <c r="C64">
+        <v>0.975000002654269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3.8699999859090801</v>
+      </c>
+      <c r="B65">
+        <v>3.7549999833572598</v>
+      </c>
+      <c r="C65">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3.4849999938160101</v>
+      </c>
+      <c r="B66">
+        <v>3.9749999996274701</v>
+      </c>
+      <c r="C66">
+        <v>0.88999999570660204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4.2149999935645601</v>
+      </c>
+      <c r="B67">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C67">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>8.2450000045355392</v>
+      </c>
+      <c r="B68">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="C68">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3.63999998080544</v>
+      </c>
+      <c r="B69">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C69">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="B70">
+        <v>8.3699999959208</v>
+      </c>
+      <c r="C70">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3.81499997456558</v>
+      </c>
+      <c r="B71">
+        <v>3.9949999772943499</v>
+      </c>
+      <c r="C71">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B72">
+        <v>3.6899999831803099</v>
+      </c>
+      <c r="C72">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3.4799999848473799</v>
+      </c>
+      <c r="B73">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="C73">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3.5800000187009502</v>
+      </c>
+      <c r="B74">
+        <v>3.5350000252947198</v>
+      </c>
+      <c r="C74">
+        <v>0.50000002374872499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3.5449999850243299</v>
+      </c>
+      <c r="B75">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="C75">
+        <v>1.0100000072270601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="B76">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C76">
+        <v>1.04000000283122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3.5099999804515298</v>
+      </c>
+      <c r="B77">
+        <v>3.7050000100862199</v>
+      </c>
+      <c r="C77">
+        <v>1.07500000740401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3.6000000254716702</v>
+      </c>
+      <c r="B78">
+        <v>3.5149999894201698</v>
+      </c>
+      <c r="C78">
+        <v>1.1050000030081699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="B79">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C79">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B80">
+        <v>3.7850000080652499</v>
+      </c>
+      <c r="C80">
+        <v>0.56499999482184604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3.77999999909661</v>
+      </c>
+      <c r="B81">
+        <v>3.8899999926798001</v>
+      </c>
+      <c r="C81">
+        <v>0.52000000141560998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3.56000001193024</v>
+      </c>
+      <c r="B82">
+        <v>3.5299999872222498</v>
+      </c>
+      <c r="C82">
+        <v>0.51500002155080404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="B83">
+        <v>3.6100000143051099</v>
+      </c>
+      <c r="C83">
+        <v>0.52999999024905198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3.7100000190548599</v>
+      </c>
+      <c r="B84">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C84">
+        <v>0.52500001038424604</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4.7649999905843199</v>
+      </c>
+      <c r="B85">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="C85">
+        <v>0.53000001935288299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>6.9749999966006699</v>
+      </c>
+      <c r="B86">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C86">
+        <v>1.08000001637265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="B87">
+        <v>3.8849999837111602</v>
+      </c>
+      <c r="C87">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="B88">
+        <v>5.1950000051874596</v>
+      </c>
+      <c r="C88">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3.71999997878447</v>
+      </c>
+      <c r="B89">
+        <v>3.6950000212527798</v>
+      </c>
+      <c r="C89">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3.5499999939929601</v>
+      </c>
+      <c r="B90">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C90">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3.8050000148359602</v>
+      </c>
+      <c r="B91">
+        <v>3.5800000187009502</v>
+      </c>
+      <c r="C91">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B92">
+        <v>3.6649999965447901</v>
+      </c>
+      <c r="C92">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="B93">
+        <v>3.9199999882839598</v>
+      </c>
+      <c r="C93">
+        <v>0.54499998805113103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3.5450000141281599</v>
+      </c>
+      <c r="B94">
+        <v>3.6300000210758299</v>
+      </c>
+      <c r="C94">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="B95">
+        <v>3.7050000100862199</v>
+      </c>
+      <c r="C95">
+        <v>0.45999998110346402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3.4850000229198401</v>
+      </c>
+      <c r="B96">
+        <v>3.5500000230967999</v>
+      </c>
+      <c r="C96">
+        <v>1.0299999848939401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3.7850000080652499</v>
+      </c>
+      <c r="B97">
+        <v>3.8150000036694101</v>
+      </c>
+      <c r="C97">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3.9749999996274701</v>
+      </c>
+      <c r="B98">
+        <v>3.9299999771173999</v>
+      </c>
+      <c r="C98">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3.6300000210758299</v>
+      </c>
+      <c r="B99">
+        <v>3.57499998062849</v>
+      </c>
+      <c r="C99">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3.5500000230967999</v>
+      </c>
+      <c r="B100">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="C100">
+        <v>0.52000000141560998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B101">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="C101">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>7.8499999945051897</v>
+      </c>
+      <c r="B102">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C102">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3.5499999939929601</v>
+      </c>
+      <c r="B103">
+        <v>3.8400000194087598</v>
+      </c>
+      <c r="C103">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="B104">
+        <v>4.10499999998137</v>
+      </c>
+      <c r="C104">
+        <v>0.49500001478008898</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3.7900000170338899</v>
+      </c>
+      <c r="B105">
+        <v>5.2349999896250603</v>
+      </c>
+      <c r="C105">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3.5100000095553598</v>
+      </c>
+      <c r="B106">
+        <v>3.8250000216066802</v>
+      </c>
+      <c r="C106">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="B107">
+        <v>3.6300000210758299</v>
+      </c>
+      <c r="C107">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="B108">
+        <v>3.6649999965447901</v>
+      </c>
+      <c r="C108">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3.8150000036694101</v>
+      </c>
+      <c r="B109">
+        <v>3.8499999791383699</v>
+      </c>
+      <c r="C109">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="B110">
+        <v>4.1250000067520798</v>
+      </c>
+      <c r="C110">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="B111">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="C111">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3.5250000073574399</v>
+      </c>
+      <c r="B112">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="C112">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3.5200000274926402</v>
+      </c>
+      <c r="B113">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C113">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>6.4849999907892197</v>
+      </c>
+      <c r="B114">
+        <v>4.0049999952316204</v>
+      </c>
+      <c r="C114">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3.6049999762326399</v>
+      </c>
+      <c r="B115">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C115">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B116">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="C116">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3.6249999830033599</v>
+      </c>
+      <c r="B117">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="C117">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3.9799999794922698</v>
+      </c>
+      <c r="B118">
+        <v>3.8649999769404499</v>
+      </c>
+      <c r="C118">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>7.2199999995063902</v>
+      </c>
+      <c r="B119">
+        <v>3.6099999852012798</v>
+      </c>
+      <c r="C119">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3.7850000080652499</v>
+      </c>
+      <c r="B120">
+        <v>3.8150000036694101</v>
+      </c>
+      <c r="C120">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="B121">
+        <v>4.0600000065751303</v>
+      </c>
+      <c r="C121">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3.5949999873991998</v>
+      </c>
+      <c r="B122">
+        <v>4.66999999480322</v>
+      </c>
+      <c r="C122">
+        <v>0.975000002654269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3.8500000082421999</v>
+      </c>
+      <c r="B123">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C123">
+        <v>0.56499999482184604</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3.5649999917950401</v>
+      </c>
+      <c r="B124">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="C124">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4.7150000173132796</v>
+      </c>
+      <c r="B125">
+        <v>3.7250000168569302</v>
+      </c>
+      <c r="C125">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3.7999999767635</v>
+      </c>
+      <c r="B126">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C126">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3.5449999850243299</v>
+      </c>
+      <c r="B127">
+        <v>3.8900000217836301</v>
+      </c>
+      <c r="C127">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3.8399999903049302</v>
+      </c>
+      <c r="B128">
+        <v>3.5599999828264099</v>
+      </c>
+      <c r="C128">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3.5300000163260798</v>
+      </c>
+      <c r="B129">
+        <v>3.95999997272156</v>
+      </c>
+      <c r="C129">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="B130">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C130">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="B131">
+        <v>4.19000000692904</v>
+      </c>
+      <c r="C131">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3.7150000280234901</v>
+      </c>
+      <c r="B132">
+        <v>3.6150000232737498</v>
+      </c>
+      <c r="C132">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3.5599999828264099</v>
+      </c>
+      <c r="B133">
+        <v>3.6799999943468702</v>
+      </c>
+      <c r="C133">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3.5299999872222498</v>
+      </c>
+      <c r="B134">
+        <v>3.8200000126380398</v>
+      </c>
+      <c r="C134">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3.6950000212527798</v>
+      </c>
+      <c r="B135">
+        <v>3.63999998080544</v>
+      </c>
+      <c r="C135">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>8.3300000114832002</v>
+      </c>
+      <c r="B136">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="C136">
+        <v>0.52000000141560998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3.65499997860752</v>
+      </c>
+      <c r="B137">
+        <v>3.8849999837111602</v>
+      </c>
+      <c r="C137">
+        <v>0.43500002357177397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="B138">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="C138">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="B139">
+        <v>3.7650000012945299</v>
+      </c>
+      <c r="C139">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3.5450000141281599</v>
+      </c>
+      <c r="B140">
+        <v>4.8750000132713396</v>
+      </c>
+      <c r="C140">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B141">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="C141">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5.3849999967496798</v>
+      </c>
+      <c r="B142">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C142">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3.6899999831803099</v>
+      </c>
+      <c r="B143">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="C143">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>8.4900000074412603</v>
+      </c>
+      <c r="B144">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="C144">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3.65499997860752</v>
+      </c>
+      <c r="B145">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C145">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3.7100000190548599</v>
+      </c>
+      <c r="B146">
+        <v>5.1899999962188303</v>
+      </c>
+      <c r="C146">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="B147">
+        <v>3.6450000188779001</v>
+      </c>
+      <c r="C147">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3.5250000073574399</v>
+      </c>
+      <c r="B148">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="C148">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3.5350000252947198</v>
+      </c>
+      <c r="B149">
+        <v>3.57499998062849</v>
+      </c>
+      <c r="C149">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B150">
+        <v>4.0699999954085797</v>
+      </c>
+      <c r="C150">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="B151">
+        <v>3.7550000124610898</v>
+      </c>
+      <c r="C151">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3.84499999927356</v>
+      </c>
+      <c r="B152">
+        <v>3.9950000063981799</v>
+      </c>
+      <c r="C152">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>4.7899999772198498</v>
+      </c>
+      <c r="B153">
+        <v>3.56000001193024</v>
+      </c>
+      <c r="C153">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="B154">
+        <v>3.88000000384636</v>
+      </c>
+      <c r="C154">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3.84499999927356</v>
+      </c>
+      <c r="B155">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C155">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3.8050000148359602</v>
+      </c>
+      <c r="B156">
+        <v>3.6500000278465401</v>
+      </c>
+      <c r="C156">
+        <v>0.78000000212341503</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="B157">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C157">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="B158">
+        <v>4.3350000050850204</v>
+      </c>
+      <c r="C158">
+        <v>0.54500001715496105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3.5200000274926402</v>
+      </c>
+      <c r="B159">
+        <v>3.6649999965447901</v>
+      </c>
+      <c r="C159">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4.3949999962933299</v>
+      </c>
+      <c r="B160">
+        <v>3.7099999899510201</v>
+      </c>
+      <c r="C160">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B161">
+        <v>3.6249999830033599</v>
+      </c>
+      <c r="C161">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="B162">
+        <v>3.8049999857321302</v>
+      </c>
+      <c r="C162">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3.7449999945238202</v>
+      </c>
+      <c r="B163">
+        <v>3.8150000036694101</v>
+      </c>
+      <c r="C163">
+        <v>0.52000000141560998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3.6899999831803099</v>
+      </c>
+      <c r="B164">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="C164">
+        <v>0.50000002374872499</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3.5199999983888102</v>
+      </c>
+      <c r="B165">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="C165">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3.6099999852012798</v>
+      </c>
+      <c r="B166">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="C166">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3.5650000208988701</v>
+      </c>
+      <c r="B167">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="C167">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4.1499999933876097</v>
+      </c>
+      <c r="B168">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="C168">
+        <v>0.57000000379048199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>7.3549999797250996</v>
+      </c>
+      <c r="B169">
+        <v>3.9050000195857102</v>
+      </c>
+      <c r="C169">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4.8399999795947197</v>
+      </c>
+      <c r="B170">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="C170">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3.56000001193024</v>
+      </c>
+      <c r="B171">
+        <v>3.6900000122841399</v>
+      </c>
+      <c r="C171">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="B172">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="C172">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="B173">
+        <v>3.7049999809823899</v>
+      </c>
+      <c r="C173">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3.77999999909661</v>
+      </c>
+      <c r="B174">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C174">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3.8699999859090801</v>
+      </c>
+      <c r="B175">
+        <v>3.7700000102631699</v>
+      </c>
+      <c r="C175">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>3.6899999831803099</v>
+      </c>
+      <c r="B176">
+        <v>4.6300000103656203</v>
+      </c>
+      <c r="C176">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="B177">
+        <v>3.7400000146590102</v>
+      </c>
+      <c r="C177">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="B178">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="C178">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3.7700000102631699</v>
+      </c>
+      <c r="B179">
+        <v>4.1750000091269603</v>
+      </c>
+      <c r="C179">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3.7849999789614199</v>
+      </c>
+      <c r="B180">
+        <v>4.0200000221375296</v>
+      </c>
+      <c r="C180">
+        <v>0.48999997670762202</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="B181">
+        <v>4.3049999803770298</v>
+      </c>
+      <c r="C181">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>3.5499999939929601</v>
+      </c>
+      <c r="B182">
+        <v>3.6800000234507002</v>
+      </c>
+      <c r="C182">
+        <v>0.55499997688457303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3.8850000128149902</v>
+      </c>
+      <c r="B183">
+        <v>4.9799999978858898</v>
+      </c>
+      <c r="C183">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="B184">
+        <v>3.5349999961908898</v>
+      </c>
+      <c r="C184">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3.8099999947007701</v>
+      </c>
+      <c r="B185">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="C185">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B186">
+        <v>3.80000000586733</v>
+      </c>
+      <c r="C186">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>7.3800000245682797</v>
+      </c>
+      <c r="B187">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C187">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>7.0399999967776203</v>
+      </c>
+      <c r="B188">
+        <v>3.7599999923259002</v>
+      </c>
+      <c r="C188">
+        <v>0.49500001478008898</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B189">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C189">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B190">
+        <v>3.7400000146590102</v>
+      </c>
+      <c r="C190">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>3.8850000128149902</v>
+      </c>
+      <c r="B191">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="C191">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="B192">
+        <v>4.2950000206474197</v>
+      </c>
+      <c r="C192">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>3.7899999879300501</v>
+      </c>
+      <c r="B193">
+        <v>3.6450000188779001</v>
+      </c>
+      <c r="C193">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="B194">
+        <v>4.4350000098347602</v>
+      </c>
+      <c r="C194">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3.5399999760556899</v>
+      </c>
+      <c r="B195">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="C195">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="B196">
+        <v>3.7449999945238202</v>
+      </c>
+      <c r="C196">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>3.8899999926798001</v>
+      </c>
+      <c r="B197">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="C197">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>3.5850000276695901</v>
+      </c>
+      <c r="B198">
+        <v>3.7400000146590102</v>
+      </c>
+      <c r="C198">
+        <v>0.49500001478008898</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>3.6749999853782298</v>
+      </c>
+      <c r="B199">
+        <v>3.7449999945238202</v>
+      </c>
+      <c r="C199">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>3.5899999784305598</v>
+      </c>
+      <c r="B200">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="C200">
+        <v>0.53499999921768904</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="B201">
+        <v>3.6450000188779001</v>
+      </c>
+      <c r="C201">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>3.7100000190548599</v>
+      </c>
+      <c r="B202">
+        <v>3.4999999916180902</v>
+      </c>
+      <c r="C202">
+        <v>0.580000021727755</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>3.4500000183470498</v>
+      </c>
+      <c r="B203">
+        <v>4.0399999998044196</v>
+      </c>
+      <c r="C203">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>3.7400000146590102</v>
+      </c>
+      <c r="B204">
+        <v>3.8700000150129199</v>
+      </c>
+      <c r="C204">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4.71499998820945</v>
+      </c>
+      <c r="B205">
+        <v>4.02500000200234</v>
+      </c>
+      <c r="C205">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="B206">
+        <v>3.7700000102631699</v>
+      </c>
+      <c r="C206">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>3.80000000586733</v>
+      </c>
+      <c r="B207">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="C207">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B208">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C208">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="B209">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C209">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="B210">
+        <v>3.7050000100862199</v>
+      </c>
+      <c r="C210">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>3.9899999974295399</v>
+      </c>
+      <c r="B211">
+        <v>4.1100000089500099</v>
+      </c>
+      <c r="C211">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3.6749999853782298</v>
+      </c>
+      <c r="B212">
+        <v>4.9699999799486196</v>
+      </c>
+      <c r="C212">
+        <v>0.52000000141560998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5.1249999960418702</v>
+      </c>
+      <c r="B213">
+        <v>3.61999997403472</v>
+      </c>
+      <c r="C213">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="B214">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="C214">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5.0300000002607703</v>
+      </c>
+      <c r="B215">
+        <v>3.7750000192318098</v>
+      </c>
+      <c r="C215">
+        <v>0.52499998128041603</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>3.6249999830033599</v>
+      </c>
+      <c r="B216">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C216">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="B217">
+        <v>3.7050000100862199</v>
+      </c>
+      <c r="C217">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>4.0100000042002604</v>
+      </c>
+      <c r="B218">
+        <v>3.7850000080652499</v>
+      </c>
+      <c r="C218">
+        <v>0.45999998110346402</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="B219">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C219">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>5.0350000092293996</v>
+      </c>
+      <c r="B220">
+        <v>3.9000000106170698</v>
+      </c>
+      <c r="C220">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>7.13499999255873</v>
+      </c>
+      <c r="B221">
+        <v>3.8500000082421999</v>
+      </c>
+      <c r="C221">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3.77999999909661</v>
+      </c>
+      <c r="B222">
+        <v>3.77999999909661</v>
+      </c>
+      <c r="C222">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>5.32499997643753</v>
+      </c>
+      <c r="B223">
+        <v>3.88000000384636</v>
+      </c>
+      <c r="C223">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="B224">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="C224">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="B225">
+        <v>3.6450000188779001</v>
+      </c>
+      <c r="C225">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>3.9749999996274701</v>
+      </c>
+      <c r="B226">
+        <v>3.8049999857321302</v>
+      </c>
+      <c r="C226">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>5.3199999965727303</v>
+      </c>
+      <c r="B227">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="C227">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3.6749999853782298</v>
+      </c>
+      <c r="B228">
+        <v>3.8500000082421999</v>
+      </c>
+      <c r="C228">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>6.3799999770708302</v>
+      </c>
+      <c r="B229">
+        <v>3.8950000016484401</v>
+      </c>
+      <c r="C229">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>3.8899999926798001</v>
+      </c>
+      <c r="B230">
+        <v>4.7849999973550403</v>
+      </c>
+      <c r="C230">
+        <v>0.56499999482184604</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="B231">
+        <v>3.80000000586733</v>
+      </c>
+      <c r="C231">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="B232">
+        <v>3.7250000168569302</v>
+      </c>
+      <c r="C232">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>5.7800000067800203</v>
+      </c>
+      <c r="B233">
+        <v>4.0399999998044196</v>
+      </c>
+      <c r="C233">
+        <v>0.49500001478008898</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3.7499999743886199</v>
+      </c>
+      <c r="B234">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="C234">
+        <v>0.54000000818632499</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="B235">
+        <v>3.5449999850243299</v>
+      </c>
+      <c r="C235">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3.6799999943468702</v>
+      </c>
+      <c r="B236">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="C236">
+        <v>0.57499998365528804</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>5.7350000133737904</v>
+      </c>
+      <c r="B237">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="C237">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>9.8949999955948407</v>
+      </c>
+      <c r="B238">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C238">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="B239">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="C239">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="B240">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="C240">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>9.3349999806378001</v>
+      </c>
+      <c r="B241">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C241">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4.0549999976065001</v>
+      </c>
+      <c r="B242">
+        <v>3.84499999927356</v>
+      </c>
+      <c r="C242">
+        <v>0.56499999482184604</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3.8549999881070098</v>
+      </c>
+      <c r="B243">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="C243">
+        <v>0.45999998110346402</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="B244">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="C244">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3.7899999879300501</v>
+      </c>
+      <c r="B245">
+        <v>3.6100000143051099</v>
+      </c>
+      <c r="C245">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>4.6900000015739298</v>
+      </c>
+      <c r="B246">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C246">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>7.2800000198185399</v>
+      </c>
+      <c r="B247">
+        <v>3.7999999767635</v>
+      </c>
+      <c r="C247">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>3.9050000195857102</v>
+      </c>
+      <c r="B248">
+        <v>4.9449999933131004</v>
+      </c>
+      <c r="C248">
+        <v>0.52999999024905198</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3.7550000124610898</v>
+      </c>
+      <c r="B249">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="C249">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3.8400000194087598</v>
+      </c>
+      <c r="B250">
+        <v>3.92499999725259</v>
+      </c>
+      <c r="C250">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B251">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="C251">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>3.6749999853782298</v>
+      </c>
+      <c r="B252">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="C252">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3.6799999943468702</v>
+      </c>
+      <c r="B253">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="C253">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3.8049999857321302</v>
+      </c>
+      <c r="B254">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="C254">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3.5949999873991998</v>
+      </c>
+      <c r="B255">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C255">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="B256">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="C256">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3.6699999764095899</v>
+      </c>
+      <c r="B257">
+        <v>3.7850000080652499</v>
+      </c>
+      <c r="C257">
+        <v>0.50000002374872499</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5.4599999857600698</v>
+      </c>
+      <c r="B258">
+        <v>3.6750000144820598</v>
+      </c>
+      <c r="C258">
+        <v>0.57000000379048199</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>3.8250000216066802</v>
+      </c>
+      <c r="B259">
+        <v>3.7549999833572598</v>
+      </c>
+      <c r="C259">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>5.2400000276975298</v>
+      </c>
+      <c r="B260">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="C260">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>4.6549999970011404</v>
+      </c>
+      <c r="B261">
+        <v>3.5100000095553598</v>
+      </c>
+      <c r="C261">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>9.2900000163353909</v>
+      </c>
+      <c r="B262">
+        <v>3.6600000166799802</v>
+      </c>
+      <c r="C262">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>7.3100000154227001</v>
+      </c>
+      <c r="B263">
+        <v>4.8250000108964697</v>
+      </c>
+      <c r="C263">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3.5250000073574399</v>
+      </c>
+      <c r="B264">
+        <v>3.8549999881070098</v>
+      </c>
+      <c r="C264">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3.86500000604428</v>
+      </c>
+      <c r="B265">
+        <v>9.4650000100955296</v>
+      </c>
+      <c r="C265">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3.6750000144820598</v>
+      </c>
+      <c r="B266">
+        <v>8.28999999794177</v>
+      </c>
+      <c r="C266">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="B267">
+        <v>3.8249999925028502</v>
+      </c>
+      <c r="C267">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>5.95500000054016</v>
+      </c>
+      <c r="B268">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="C268">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3.7949999968986901</v>
+      </c>
+      <c r="B269">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="C269">
+        <v>0.49500001478008898</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>3.6249999830033599</v>
+      </c>
+      <c r="B270">
+        <v>3.6799999943468702</v>
+      </c>
+      <c r="C270">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>3.5649999917950401</v>
+      </c>
+      <c r="B271">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="C271">
+        <v>0.44000000343658002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3.6599999875761502</v>
+      </c>
+      <c r="B272">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C272">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>3.8849999837111602</v>
+      </c>
+      <c r="B273">
+        <v>3.8250000216066802</v>
+      </c>
+      <c r="C273">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>3.8399999903049302</v>
+      </c>
+      <c r="B274">
+        <v>3.86500000604428</v>
+      </c>
+      <c r="C274">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>4.8550000065006298</v>
+      </c>
+      <c r="B275">
+        <v>3.6749999853782298</v>
+      </c>
+      <c r="C275">
+        <v>0.54000000818632499</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>3.6649999965447901</v>
+      </c>
+      <c r="B276">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="C276">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>5.5399999837390999</v>
+      </c>
+      <c r="B277">
+        <v>3.63999998080544</v>
+      </c>
+      <c r="C277">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>4.19000000692904</v>
+      </c>
+      <c r="B278">
+        <v>4.0500000177416897</v>
+      </c>
+      <c r="C278">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>4.4550000166054797</v>
+      </c>
+      <c r="B279">
+        <v>7.3649999976623803</v>
+      </c>
+      <c r="C279">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>4.7249999770428897</v>
+      </c>
+      <c r="B280">
+        <v>3.6750000144820598</v>
+      </c>
+      <c r="C280">
+        <v>0.52500001038424604</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B281">
+        <v>3.6899999831803099</v>
+      </c>
+      <c r="C281">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="B282">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C282">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>3.88000000384636</v>
+      </c>
+      <c r="B283">
+        <v>3.5499999939929601</v>
+      </c>
+      <c r="C283">
+        <v>0.51500002155080404</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>3.7750000192318098</v>
+      </c>
+      <c r="B284">
+        <v>4.09999999101273</v>
+      </c>
+      <c r="C284">
+        <v>0.53499999921768904</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>3.5199999983888102</v>
+      </c>
+      <c r="B285">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="C285">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3.8050000148359602</v>
+      </c>
+      <c r="B286">
+        <v>3.6800000234507002</v>
+      </c>
+      <c r="C286">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>3.5649999917950401</v>
+      </c>
+      <c r="B287">
+        <v>3.8249999925028502</v>
+      </c>
+      <c r="C287">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3.7750000192318098</v>
+      </c>
+      <c r="B288">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="C288">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>3.9950000063981799</v>
+      </c>
+      <c r="B289">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C289">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>5.1349999848753196</v>
+      </c>
+      <c r="B290">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="C290">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>4.0399999998044196</v>
+      </c>
+      <c r="B291">
+        <v>3.9099999994505099</v>
+      </c>
+      <c r="C291">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="B292">
+        <v>3.5300000163260798</v>
+      </c>
+      <c r="C292">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="B293">
+        <v>3.6100000143051099</v>
+      </c>
+      <c r="C293">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>5.4900000104680604</v>
+      </c>
+      <c r="B294">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C294">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>4.0549999976065001</v>
+      </c>
+      <c r="B295">
+        <v>3.6649999965447901</v>
+      </c>
+      <c r="C295">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>5.4100000124890304</v>
+      </c>
+      <c r="B296">
+        <v>3.9849999884609102</v>
+      </c>
+      <c r="C296">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>3.8399999903049302</v>
+      </c>
+      <c r="B297">
+        <v>3.6300000210758299</v>
+      </c>
+      <c r="C297">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="B298">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="C298">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>3.65499997860752</v>
+      </c>
+      <c r="B299">
+        <v>3.73499997658655</v>
+      </c>
+      <c r="C299">
+        <v>0.43999997433274901</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3.8950000016484401</v>
+      </c>
+      <c r="B300">
+        <v>3.7249999877531002</v>
+      </c>
+      <c r="C300">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="B301">
+        <v>3.9699999906588301</v>
+      </c>
+      <c r="C301">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>3.6100000143051099</v>
+      </c>
+      <c r="B302">
+        <v>5.4649999947287098</v>
+      </c>
+      <c r="C302">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>3.6599999875761502</v>
+      </c>
+      <c r="B303">
+        <v>3.7650000012945299</v>
+      </c>
+      <c r="C303">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>3.9150000084191499</v>
+      </c>
+      <c r="B304">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C304">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>3.6849999742116699</v>
+      </c>
+      <c r="B305">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="C305">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>3.7850000080652499</v>
+      </c>
+      <c r="B306">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C306">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>4.16500002029351</v>
+      </c>
+      <c r="B307">
+        <v>3.56000001193024</v>
+      </c>
+      <c r="C307">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="B308">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="C308">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>3.6750000144820598</v>
+      </c>
+      <c r="B309">
+        <v>3.5050000005867301</v>
+      </c>
+      <c r="C309">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>3.9950000063981799</v>
+      </c>
+      <c r="B310">
+        <v>3.9799999794922698</v>
+      </c>
+      <c r="C310">
+        <v>0.52999999024905198</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>4.9449999933131004</v>
+      </c>
+      <c r="B311">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="C311">
+        <v>0.52500001038424604</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>5.2800000121351296</v>
+      </c>
+      <c r="B312">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="C312">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>8.6250000167637992</v>
+      </c>
+      <c r="B313">
+        <v>9.5049999945331294</v>
+      </c>
+      <c r="C313">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>3.9199999882839598</v>
+      </c>
+      <c r="B314">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C314">
+        <v>0.51500002155080404</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="B315">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C315">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>3.6249999830033599</v>
+      </c>
+      <c r="B316">
+        <v>3.61999997403472</v>
+      </c>
+      <c r="C316">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>4.1800000180955896</v>
+      </c>
+      <c r="B317">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="C317">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="B318">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C318">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>3.9650000107940202</v>
+      </c>
+      <c r="B319">
+        <v>3.7250000168569302</v>
+      </c>
+      <c r="C319">
+        <v>0.48999997670762202</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>3.9749999996274701</v>
+      </c>
+      <c r="B320">
+        <v>4.6499999880324996</v>
+      </c>
+      <c r="C320">
+        <v>0.56499999482184604</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>9.3300000007729906</v>
+      </c>
+      <c r="B321">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="C321">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>3.93999999505467</v>
+      </c>
+      <c r="B322">
+        <v>3.6749999853782298</v>
+      </c>
+      <c r="C322">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>3.80000000586733</v>
+      </c>
+      <c r="B323">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C323">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>5.4499999969266302</v>
+      </c>
+      <c r="B324">
+        <v>3.84499999927356</v>
+      </c>
+      <c r="C324">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>3.6100000143051099</v>
+      </c>
+      <c r="B325">
+        <v>3.6500000278465401</v>
+      </c>
+      <c r="C325">
+        <v>0.54999999701976698</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>4.3450000230222896</v>
+      </c>
+      <c r="B326">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="C326">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="B327">
+        <v>3.6450000188779001</v>
+      </c>
+      <c r="C327">
+        <v>0.54999999701976698</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>5.0549999868962896</v>
+      </c>
+      <c r="B328">
+        <v>3.9000000106170698</v>
+      </c>
+      <c r="C328">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>7.5749999959953103</v>
+      </c>
+      <c r="B329">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C329">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>4.0449999796692202</v>
+      </c>
+      <c r="B330">
+        <v>3.7450000236276502</v>
+      </c>
+      <c r="C330">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>3.9000000106170698</v>
+      </c>
+      <c r="B331">
+        <v>3.5250000073574399</v>
+      </c>
+      <c r="C331">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="B332">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="C332">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>3.9749999996274701</v>
+      </c>
+      <c r="B333">
+        <v>3.9199999882839598</v>
+      </c>
+      <c r="C333">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>3.7599999923259002</v>
+      </c>
+      <c r="B334">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="C334">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>3.5649999917950401</v>
+      </c>
+      <c r="B335">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C335">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>3.9899999974295399</v>
+      </c>
+      <c r="B336">
+        <v>3.7600000214297302</v>
+      </c>
+      <c r="C336">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>5.2549999963957799</v>
+      </c>
+      <c r="B337">
+        <v>4.0149999840650699</v>
+      </c>
+      <c r="C337">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="B338">
+        <v>4.0100000042002604</v>
+      </c>
+      <c r="C338">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>3.9200000173877898</v>
+      </c>
+      <c r="B339">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C339">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3.8300000014714799</v>
+      </c>
+      <c r="B340">
+        <v>3.7250000168569302</v>
+      </c>
+      <c r="C340">
+        <v>0.53499999921768904</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>4.9850000068545297</v>
+      </c>
+      <c r="B341">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C341">
+        <v>0.45999998110346402</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>3.8699999859090801</v>
+      </c>
+      <c r="B342">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C342">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>5.1349999848753196</v>
+      </c>
+      <c r="B343">
+        <v>3.7449999945238202</v>
+      </c>
+      <c r="C343">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>3.7600000214297302</v>
+      </c>
+      <c r="B344">
+        <v>3.71999997878447</v>
+      </c>
+      <c r="C344">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>4.7649999905843199</v>
+      </c>
+      <c r="B345">
+        <v>3.8249999925028502</v>
+      </c>
+      <c r="C345">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>5.91000000713393</v>
+      </c>
+      <c r="B346">
+        <v>3.5799999895971202</v>
+      </c>
+      <c r="C346">
+        <v>0.58500000159256105</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="B347">
+        <v>3.5349999961908898</v>
+      </c>
+      <c r="C347">
+        <v>0.51500002155080404</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="B348">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="C348">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>4.0000000153668198</v>
+      </c>
+      <c r="B349">
+        <v>3.5349999961908898</v>
+      </c>
+      <c r="C349">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="B350">
+        <v>3.7900000170338899</v>
+      </c>
+      <c r="C350">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>3.6900000122841399</v>
+      </c>
+      <c r="B351">
+        <v>3.9899999974295399</v>
+      </c>
+      <c r="C351">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B352">
+        <v>3.6049999762326399</v>
+      </c>
+      <c r="C352">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>3.8150000036694101</v>
+      </c>
+      <c r="B353">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="C353">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="B354">
+        <v>3.85999999707564</v>
+      </c>
+      <c r="C354">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>4.16500002029351</v>
+      </c>
+      <c r="B355">
+        <v>3.87999997474253</v>
+      </c>
+      <c r="C355">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3.61999997403472</v>
+      </c>
+      <c r="B356">
+        <v>4.95999999111518</v>
+      </c>
+      <c r="C356">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="B357">
+        <v>3.7949999968986901</v>
+      </c>
+      <c r="C357">
+        <v>0.47000002814456798</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>5.3049999987706498</v>
+      </c>
+      <c r="B358">
+        <v>3.96000000182539</v>
+      </c>
+      <c r="C358">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>4.1199999977834496</v>
+      </c>
+      <c r="B359">
+        <v>3.57499998062849</v>
+      </c>
+      <c r="C359">
+        <v>0.93000000924803305</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>5.0250000203959599</v>
+      </c>
+      <c r="B360">
+        <v>3.5300000163260798</v>
+      </c>
+      <c r="C360">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>3.8050000148359602</v>
+      </c>
+      <c r="B361">
+        <v>3.5499999939929601</v>
+      </c>
+      <c r="C361">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>9.2000000004190898</v>
+      </c>
+      <c r="B362">
+        <v>3.9800000085960998</v>
+      </c>
+      <c r="C362">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3.85999999707564</v>
+      </c>
+      <c r="B363">
+        <v>3.73499997658655</v>
+      </c>
+      <c r="C363">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3.8649999769404499</v>
+      </c>
+      <c r="B364">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="C364">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>7.0450000057462603</v>
+      </c>
+      <c r="B365">
+        <v>3.85999999707564</v>
+      </c>
+      <c r="C365">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>4.1600000113248798</v>
+      </c>
+      <c r="B366">
+        <v>3.6600000166799802</v>
+      </c>
+      <c r="C366">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>6.6749999823514301</v>
+      </c>
+      <c r="B367">
+        <v>3.8399999903049302</v>
+      </c>
+      <c r="C367">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>4.7699999995529598</v>
+      </c>
+      <c r="B368">
+        <v>4.3000000005122203</v>
+      </c>
+      <c r="C368">
+        <v>0.48500002594664599</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>5.1899999962188303</v>
+      </c>
+      <c r="B369">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="C369">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>5.0049999845214099</v>
+      </c>
+      <c r="B370">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="C370">
+        <v>0.52499998128041603</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>4.3599999917205396</v>
+      </c>
+      <c r="B371">
+        <v>3.61999997403472</v>
+      </c>
+      <c r="C371">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>4.2050000047311098</v>
+      </c>
+      <c r="B372">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="C372">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>7.5999999826308304</v>
+      </c>
+      <c r="B373">
+        <v>3.8699999859090801</v>
+      </c>
+      <c r="C373">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>7.9050000058487004</v>
+      </c>
+      <c r="B374">
+        <v>9.5799999835435301</v>
+      </c>
+      <c r="C374">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>5.5549999815411804</v>
+      </c>
+      <c r="B375">
+        <v>3.5949999873991998</v>
+      </c>
+      <c r="C375">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>3.5199999983888102</v>
+      </c>
+      <c r="B376">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="C376">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>4.0799999842420203</v>
+      </c>
+      <c r="B377">
+        <v>3.57499998062849</v>
+      </c>
+      <c r="C377">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>4.6100000035948998</v>
+      </c>
+      <c r="B378">
+        <v>3.80000000586733</v>
+      </c>
+      <c r="C378">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>6.6150000202469501</v>
+      </c>
+      <c r="B379">
+        <v>3.6649999965447901</v>
+      </c>
+      <c r="C379">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>9.4450000033248198</v>
+      </c>
+      <c r="B380">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="C380">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>16.234999988228001</v>
+      </c>
+      <c r="B381">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="C381">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>19.510000012814999</v>
+      </c>
+      <c r="B382">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="C382">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>10.190000000875401</v>
+      </c>
+      <c r="B383">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="C383">
+        <v>0.49499998567625803</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>20.5499999865423</v>
+      </c>
+      <c r="B384">
+        <v>3.5499999939929601</v>
+      </c>
+      <c r="C384">
+        <v>0.52999999024905198</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>8.4750000096391798</v>
+      </c>
+      <c r="B385">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C385">
+        <v>0.55999998585320998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>4.8200000019278297</v>
+      </c>
+      <c r="B386">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="C386">
+        <v>0.50499997450970102</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>3.8950000016484401</v>
+      </c>
+      <c r="B387">
+        <v>3.7250000168569302</v>
+      </c>
+      <c r="C387">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>3.7549999833572598</v>
+      </c>
+      <c r="B388">
+        <v>3.77999999909661</v>
+      </c>
+      <c r="C388">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="B389">
+        <v>3.5300000163260798</v>
+      </c>
+      <c r="C389">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>3.57500000973232</v>
+      </c>
+      <c r="B390">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C390">
+        <v>0.56499999482184604</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>3.5149999894201698</v>
+      </c>
+      <c r="B391">
+        <v>3.7250000168569302</v>
+      </c>
+      <c r="C391">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>3.8950000016484401</v>
+      </c>
+      <c r="B392">
+        <v>8.1650000065565091</v>
+      </c>
+      <c r="C392">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="B393">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C393">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>5.9400000027380804</v>
+      </c>
+      <c r="B394">
+        <v>3.6649999965447901</v>
+      </c>
+      <c r="C394">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>9.5499999879393709</v>
+      </c>
+      <c r="B395">
+        <v>3.7099999899510201</v>
+      </c>
+      <c r="C395">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>5.6149999727494997</v>
+      </c>
+      <c r="B396">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="C396">
+        <v>0.44000000343658002</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>4.2350000003352699</v>
+      </c>
+      <c r="B397">
+        <v>3.6599999875761502</v>
+      </c>
+      <c r="C397">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>3.5399999760556899</v>
+      </c>
+      <c r="B398">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="C398">
+        <v>0.55500000598840404</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B399">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C399">
+        <v>0.905000022612512</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>13.6100000236183</v>
+      </c>
+      <c r="B400">
+        <v>3.5199999983888102</v>
+      </c>
+      <c r="C400">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="B401">
+        <v>3.5100000095553598</v>
+      </c>
+      <c r="C401">
+        <v>0.47499997890554302</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B402">
+        <v>3.8150000036694101</v>
+      </c>
+      <c r="C402">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>3.7949999968986901</v>
+      </c>
+      <c r="B403">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C403">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="B404">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="C404">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B405">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C405">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>3.6249999830033599</v>
+      </c>
+      <c r="B406">
+        <v>3.7700000102631699</v>
+      </c>
+      <c r="C406">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="B407">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C407">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="B408">
+        <v>4.19000000692904</v>
+      </c>
+      <c r="C408">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="B409">
+        <v>3.8099999947007701</v>
+      </c>
+      <c r="C409">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="B410">
+        <v>9.3950000009499401</v>
+      </c>
+      <c r="C410">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="B411">
+        <v>3.6900000122841399</v>
+      </c>
+      <c r="C411">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="B412">
+        <v>3.8249999925028502</v>
+      </c>
+      <c r="C412">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="B413">
+        <v>3.9850000175647402</v>
+      </c>
+      <c r="C413">
+        <v>0.45999998110346402</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="B414">
+        <v>3.8049999857321302</v>
+      </c>
+      <c r="C414">
+        <v>0.52500001038424604</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="B415">
+        <v>4.0399999998044196</v>
+      </c>
+      <c r="C415">
+        <v>0.52000000141560998</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>3.6150000232737498</v>
+      </c>
+      <c r="B416">
+        <v>8.2300000067334604</v>
+      </c>
+      <c r="C416">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>5.0600000249687502</v>
+      </c>
+      <c r="B417">
+        <v>7.7799999853596002</v>
+      </c>
+      <c r="C417">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>4.9650000000838101</v>
+      </c>
+      <c r="B418">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="C418">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>3.6449999897740701</v>
+      </c>
+      <c r="B419">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C419">
+        <v>0.55500000598840404</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>3.6900000122841399</v>
+      </c>
+      <c r="B420">
+        <v>3.6750000144820598</v>
+      </c>
+      <c r="C420">
+        <v>0.52000000141560998</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>3.7550000124610898</v>
+      </c>
+      <c r="B421">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="C421">
+        <v>0.57499998365528804</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="B422">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="C422">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>4.0349999908357796</v>
+      </c>
+      <c r="B423">
+        <v>3.7050000100862199</v>
+      </c>
+      <c r="C423">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="B424">
+        <v>3.6849999742116699</v>
+      </c>
+      <c r="C424">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>3.5649999917950401</v>
+      </c>
+      <c r="B425">
+        <v>3.7699999811593399</v>
+      </c>
+      <c r="C425">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>4.10499999998137</v>
+      </c>
+      <c r="B426">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="C426">
+        <v>0.50500000361353103</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>4.1349999955855301</v>
+      </c>
+      <c r="B427">
+        <v>3.9849999884609102</v>
+      </c>
+      <c r="C427">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>3.6950000212527798</v>
+      </c>
+      <c r="B428">
+        <v>7.29499998851679</v>
+      </c>
+      <c r="C428">
+        <v>0.55500000598840404</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>3.55499997385777</v>
+      </c>
+      <c r="B429">
+        <v>3.7200000078883</v>
+      </c>
+      <c r="C429">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>3.4499999892432198</v>
+      </c>
+      <c r="B430">
+        <v>3.8749999948777201</v>
+      </c>
+      <c r="C430">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="B431">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C431">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="B432">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="C432">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>4.2949999915435901</v>
+      </c>
+      <c r="B433">
+        <v>3.6149999941699198</v>
+      </c>
+      <c r="C433">
+        <v>0.51500002155080404</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>4.6600000059697697</v>
+      </c>
+      <c r="B434">
+        <v>3.5099999804515298</v>
+      </c>
+      <c r="C434">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>5.1300000050105101</v>
+      </c>
+      <c r="B435">
+        <v>3.8950000016484401</v>
+      </c>
+      <c r="C435">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="B436">
+        <v>3.54000000515952</v>
+      </c>
+      <c r="C436">
+        <v>0.53499999921768904</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>3.7749999901279798</v>
+      </c>
+      <c r="B437">
+        <v>3.6300000210758299</v>
+      </c>
+      <c r="C437">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>3.64000000990927</v>
+      </c>
+      <c r="B438">
+        <v>3.6700000055134199</v>
+      </c>
+      <c r="C438">
+        <v>1.1050000030081699</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B439">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="C439">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="B440">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C440">
+        <v>0.50499997450970102</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>3.5000000207219202</v>
+      </c>
+      <c r="B441">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C441">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>4.5049999898765201</v>
+      </c>
+      <c r="B442">
+        <v>3.5950000165030298</v>
+      </c>
+      <c r="C442">
+        <v>0.52000000141560998</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>3.6799999943468702</v>
+      </c>
+      <c r="B443">
+        <v>3.7399999855551802</v>
+      </c>
+      <c r="C443">
+        <v>0.925000000279396</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>3.7599999923259002</v>
+      </c>
+      <c r="B444">
+        <v>3.5999999963678402</v>
+      </c>
+      <c r="C444">
+        <v>0.47000002814456798</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>3.7499999743886199</v>
+      </c>
+      <c r="B445">
+        <v>8.2499999844003398</v>
+      </c>
+      <c r="C445">
+        <v>0.53499999921768904</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>3.6100000143051099</v>
+      </c>
+      <c r="B446">
+        <v>3.5700000007636801</v>
+      </c>
+      <c r="C446">
+        <v>0.45999998110346402</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>3.5449999850243299</v>
+      </c>
+      <c r="B447">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="C447">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>4.0049999952316204</v>
+      </c>
+      <c r="B448">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="C448">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B449">
+        <v>3.6050000053364699</v>
+      </c>
+      <c r="C449">
+        <v>0.46500001917593098</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>3.8200000126380398</v>
+      </c>
+      <c r="B450">
+        <v>3.8099999947007701</v>
+      </c>
+      <c r="C450">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="B451">
+        <v>3.7949999968986901</v>
+      </c>
+      <c r="C451">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>8.0400000151712394</v>
+      </c>
+      <c r="B452">
+        <v>3.6750000144820598</v>
+      </c>
+      <c r="C452">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>4.6100000035948998</v>
+      </c>
+      <c r="B453">
+        <v>3.9749999996274701</v>
+      </c>
+      <c r="C453">
+        <v>0.48499999684281597</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>3.6750000144820598</v>
+      </c>
+      <c r="B454">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="C454">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="B455">
+        <v>3.6600000166799802</v>
+      </c>
+      <c r="C455">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="B456">
+        <v>3.6600000166799802</v>
+      </c>
+      <c r="C456">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="B457">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C457">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="B458">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="C458">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>3.7450000236276502</v>
+      </c>
+      <c r="B459">
+        <v>3.8749999948777201</v>
+      </c>
+      <c r="C459">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>3.7449999945238202</v>
+      </c>
+      <c r="B460">
+        <v>3.7749999901279798</v>
+      </c>
+      <c r="C460">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>3.7600000214297302</v>
+      </c>
+      <c r="B461">
+        <v>4.0949999820440999</v>
+      </c>
+      <c r="C461">
+        <v>0.47999998787418002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>3.63500000094063</v>
+      </c>
+      <c r="B462">
+        <v>7.6500000141095299</v>
+      </c>
+      <c r="C462">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>3.5199999983888102</v>
+      </c>
+      <c r="B463">
+        <v>3.5550000029616</v>
+      </c>
+      <c r="C463">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>3.4799999848473799</v>
+      </c>
+      <c r="B464">
+        <v>3.70000000111758</v>
+      </c>
+      <c r="C464">
+        <v>0.50999998347833697</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>4.2249999823979998</v>
+      </c>
+      <c r="B465">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="C465">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>3.5849999985657601</v>
+      </c>
+      <c r="B466">
+        <v>3.8199999835342102</v>
+      </c>
+      <c r="C466">
+        <v>0.46000001020729497</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>4.2899999825749502</v>
+      </c>
+      <c r="B467">
+        <v>3.7650000012945299</v>
+      </c>
+      <c r="C467">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>4.3149999983142999</v>
+      </c>
+      <c r="B468">
+        <v>3.5450000141281599</v>
+      </c>
+      <c r="C468">
+        <v>0.45000002137385298</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>6.0850000008940697</v>
+      </c>
+      <c r="B469">
+        <v>3.6450000188779001</v>
+      </c>
+      <c r="C469">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>3.6099999852012798</v>
+      </c>
+      <c r="B470">
+        <v>3.7399999855551802</v>
+      </c>
+      <c r="C470">
+        <v>0.45500000123865902</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>3.6950000212527798</v>
+      </c>
+      <c r="B471">
+        <v>3.5299999872222498</v>
+      </c>
+      <c r="C471">
+        <v>0.44499998330138602</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>3.6599999875761502</v>
+      </c>
+      <c r="B472">
+        <v>3.5349999961908898</v>
+      </c>
+      <c r="C472">
+        <v>0.46499999007210102</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>4.1950000158976701</v>
+      </c>
+      <c r="B473">
+        <v>3.88000000384636</v>
+      </c>
+      <c r="C473">
+        <v>0.99999998928978995</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>3.6800000234507002</v>
+      </c>
+      <c r="B474">
+        <v>3.9150000084191499</v>
+      </c>
+      <c r="C474">
+        <v>0.48000001697800998</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>3.5949999873991998</v>
+      </c>
+      <c r="B475">
+        <v>3.5150000185239998</v>
+      </c>
+      <c r="C475">
+        <v>0.49500001478008898</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="B476">
+        <v>3.6949999921489498</v>
+      </c>
+      <c r="C476">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>3.6049999762326399</v>
+      </c>
+      <c r="B477">
+        <v>3.5800000187009502</v>
+      </c>
+      <c r="C477">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>3.5149999894201698</v>
+      </c>
+      <c r="B478">
+        <v>3.7099999899510201</v>
+      </c>
+      <c r="C478">
+        <v>0.51499999244697303</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>3.7500000034924499</v>
+      </c>
+      <c r="B479">
+        <v>3.7999999767635</v>
+      </c>
+      <c r="C479">
+        <v>0.45999998110346402</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>5.1549999916460303</v>
+      </c>
+      <c r="B480">
+        <v>4.8649999953340703</v>
+      </c>
+      <c r="C480">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>4.2850000027101398</v>
+      </c>
+      <c r="B481">
+        <v>3.57499998062849</v>
+      </c>
+      <c r="C481">
+        <v>0.56499999482184604</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>5.0000000046566102</v>
+      </c>
+      <c r="B482">
+        <v>3.5900000075343899</v>
+      </c>
+      <c r="C482">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="B483">
+        <v>3.65500000771135</v>
+      </c>
+      <c r="C483">
+        <v>0.44500001240521603</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>4.1799999889917601</v>
+      </c>
+      <c r="B484">
+        <v>3.5949999873991998</v>
+      </c>
+      <c r="C484">
+        <v>0.46999999904073703</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>8.6999999766703695</v>
+      </c>
+      <c r="B485">
+        <v>3.71499999891966</v>
+      </c>
+      <c r="C485">
+        <v>0.54999999701976698</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>3.85999999707564</v>
+      </c>
+      <c r="B486">
+        <v>3.6299999919719901</v>
+      </c>
+      <c r="C486">
+        <v>0.44000000343658002</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>3.8199999835342102</v>
+      </c>
+      <c r="B487">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="C487">
+        <v>0.47500000800937398</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>3.92499999725259</v>
+      </c>
+      <c r="B488">
+        <v>3.7249999877531002</v>
+      </c>
+      <c r="C488">
+        <v>0.49500001478008898</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>5.4399999789893601</v>
+      </c>
+      <c r="B489">
+        <v>3.57499998062849</v>
+      </c>
+      <c r="C489">
+        <v>0.49000000581145198</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>3.8950000016484401</v>
+      </c>
+      <c r="B490">
+        <v>3.7250000168569302</v>
+      </c>
+      <c r="C490">
+        <v>0.49999999464489497</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>5.7149999774992404</v>
+      </c>
+      <c r="B491">
+        <v>3.7299999967217401</v>
+      </c>
+      <c r="C491">
+        <v>0.51000001258216798</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>3.8850000128149902</v>
+      </c>
+      <c r="B492">
+        <v>3.6250000121071899</v>
+      </c>
+      <c r="C492">
+        <v>0.44999999227002202</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>6.7149999958928603</v>
+      </c>
+      <c r="B493">
+        <v>3.6850000033154999</v>
+      </c>
+      <c r="C493">
+        <v>1.15499997627921</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>3.8099999947007701</v>
+      </c>
+      <c r="B494">
+        <v>3.6499999987427101</v>
+      </c>
+      <c r="C494">
+        <v>0.82499999552965098</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>3.8999999815132398</v>
+      </c>
+      <c r="B495">
+        <v>3.6249999830033599</v>
+      </c>
+      <c r="C495">
+        <v>0.61499999719671905</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>4.19000000692904</v>
+      </c>
+      <c r="B496">
+        <v>4.10499999998137</v>
+      </c>
+      <c r="C496">
+        <v>0.659999990602955</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>9.1899999824818206</v>
+      </c>
+      <c r="B497">
+        <v>4.9550000112503696</v>
+      </c>
+      <c r="C497">
+        <v>0.69500002427957897</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>5.0300000002607703</v>
+      </c>
+      <c r="B498">
+        <v>3.7949999968986901</v>
+      </c>
+      <c r="C498">
+        <v>0.63500000396743395</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>5.3850000258535102</v>
+      </c>
+      <c r="B499">
+        <v>3.62000000313855</v>
+      </c>
+      <c r="C499">
+        <v>0.67499998840503395</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>5.4999999993015001</v>
+      </c>
+      <c r="B500">
+        <v>3.8749999948777201</v>
+      </c>
+      <c r="C500">
+        <v>0.65499998163431805</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>4.0949999820440999</v>
+      </c>
+      <c r="B501">
+        <v>3.73500000569038</v>
+      </c>
+      <c r="C501">
+        <v>0.75999999535270002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>